--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H2">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I2">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J2">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N2">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O2">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P2">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q2">
-        <v>7.96902797595911</v>
+        <v>6.671185664547222</v>
       </c>
       <c r="R2">
-        <v>71.721251783632</v>
+        <v>60.040670980925</v>
       </c>
       <c r="S2">
-        <v>0.1006129735801037</v>
+        <v>0.09566122178021812</v>
       </c>
       <c r="T2">
-        <v>0.1006129735801037</v>
+        <v>0.09566122178021812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H3">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I3">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J3">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.468992</v>
       </c>
       <c r="O3">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P3">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q3">
-        <v>0.9106673173617778</v>
+        <v>0.6960067558257779</v>
       </c>
       <c r="R3">
-        <v>8.196005856255999</v>
+        <v>6.264060802432</v>
       </c>
       <c r="S3">
-        <v>0.01149763145748738</v>
+        <v>0.009980363308341345</v>
       </c>
       <c r="T3">
-        <v>0.01149763145748738</v>
+        <v>0.009980363308341343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H4">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I4">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J4">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N4">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O4">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P4">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q4">
-        <v>0.3120796985342222</v>
+        <v>0.5434101253479999</v>
       </c>
       <c r="R4">
-        <v>2.808717286808</v>
+        <v>4.890691128132</v>
       </c>
       <c r="S4">
-        <v>0.003940162659515745</v>
+        <v>0.007792209531026341</v>
       </c>
       <c r="T4">
-        <v>0.003940162659515745</v>
+        <v>0.007792209531026341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H5">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I5">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J5">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N5">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O5">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P5">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q5">
-        <v>3.823180957569777</v>
+        <v>1.703809107958778</v>
       </c>
       <c r="R5">
-        <v>34.40862861812799</v>
+        <v>15.334281971629</v>
       </c>
       <c r="S5">
-        <v>0.04826957639455742</v>
+        <v>0.02443170811656048</v>
       </c>
       <c r="T5">
-        <v>0.04826957639455742</v>
+        <v>0.02443170811656047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4223226666666666</v>
+        <v>0.3227736666666667</v>
       </c>
       <c r="H6">
-        <v>1.266968</v>
+        <v>0.968321</v>
       </c>
       <c r="I6">
-        <v>0.1676547342089268</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="J6">
-        <v>0.1676547342089269</v>
+        <v>0.1416094457286952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N6">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O6">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P6">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q6">
-        <v>0.2640996203742222</v>
+        <v>0.2610936631998889</v>
       </c>
       <c r="R6">
-        <v>2.376896583368</v>
+        <v>2.349842968799</v>
       </c>
       <c r="S6">
-        <v>0.003334390117262575</v>
+        <v>0.003743942992548885</v>
       </c>
       <c r="T6">
-        <v>0.003334390117262575</v>
+        <v>0.003743942992548885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.624959</v>
       </c>
       <c r="I7">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J7">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N7">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O7">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P7">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q7">
-        <v>35.38010086649622</v>
+        <v>38.75279565811945</v>
       </c>
       <c r="R7">
-        <v>318.420907798466</v>
+        <v>348.775160923075</v>
       </c>
       <c r="S7">
-        <v>0.4466915117478631</v>
+        <v>0.5556942898105421</v>
       </c>
       <c r="T7">
-        <v>0.4466915117478632</v>
+        <v>0.5556942898105423</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.624959</v>
       </c>
       <c r="I8">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J8">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.468992</v>
       </c>
       <c r="O8">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P8">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q8">
         <v>4.043090530147556</v>
@@ -948,10 +948,10 @@
         <v>36.387814771328</v>
       </c>
       <c r="S8">
-        <v>0.05104604500309146</v>
+        <v>0.05797574813984663</v>
       </c>
       <c r="T8">
-        <v>0.05104604500309146</v>
+        <v>0.05797574813984662</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.624959</v>
       </c>
       <c r="I9">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J9">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N9">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O9">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P9">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q9">
-        <v>1.385540525875445</v>
+        <v>3.156659491292</v>
       </c>
       <c r="R9">
-        <v>12.469864732879</v>
+        <v>28.409935421628</v>
       </c>
       <c r="S9">
-        <v>0.01749314379929645</v>
+        <v>0.0452648028199661</v>
       </c>
       <c r="T9">
-        <v>0.01749314379929645</v>
+        <v>0.04526480281996611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.624959</v>
       </c>
       <c r="I10">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J10">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N10">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O10">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P10">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q10">
-        <v>16.97378002910155</v>
+        <v>9.897395983454556</v>
       </c>
       <c r="R10">
-        <v>152.764020261914</v>
+        <v>89.07656385109101</v>
       </c>
       <c r="S10">
-        <v>0.2143024829093974</v>
+        <v>0.1419233461379232</v>
       </c>
       <c r="T10">
-        <v>0.2143024829093974</v>
+        <v>0.1419233461379232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.624959</v>
       </c>
       <c r="I11">
-        <v>0.7443368783435028</v>
+        <v>0.8226066833587575</v>
       </c>
       <c r="J11">
-        <v>0.7443368783435029</v>
+        <v>0.8226066833587576</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N11">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O11">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P11">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q11">
-        <v>1.172523328545445</v>
+        <v>1.516688319946778</v>
       </c>
       <c r="R11">
-        <v>10.552709956909</v>
+        <v>13.650194879521</v>
       </c>
       <c r="S11">
-        <v>0.01480369488385435</v>
+        <v>0.02174849645047953</v>
       </c>
       <c r="T11">
-        <v>0.01480369488385435</v>
+        <v>0.02174849645047953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H12">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I12">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J12">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.86952466666667</v>
+        <v>20.66830833333333</v>
       </c>
       <c r="N12">
-        <v>56.608574</v>
+        <v>62.004925</v>
       </c>
       <c r="O12">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="P12">
-        <v>0.600120086407596</v>
+        <v>0.6755285375771634</v>
       </c>
       <c r="Q12">
-        <v>4.183247821768889</v>
+        <v>1.685769232591666</v>
       </c>
       <c r="R12">
-        <v>37.64923039592</v>
+        <v>15.171923093325</v>
       </c>
       <c r="S12">
-        <v>0.05281560107962899</v>
+        <v>0.02417302598640306</v>
       </c>
       <c r="T12">
-        <v>0.052815601079629</v>
+        <v>0.02417302598640306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H13">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I13">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J13">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.468992</v>
       </c>
       <c r="O13">
-        <v>0.0685792233171259</v>
+        <v>0.07047809033489469</v>
       </c>
       <c r="P13">
-        <v>0.06857922331712589</v>
+        <v>0.07047809033489467</v>
       </c>
       <c r="Q13">
-        <v>0.4780441332622222</v>
+        <v>0.1758767981653333</v>
       </c>
       <c r="R13">
-        <v>4.30239719936</v>
+        <v>1.582891183488</v>
       </c>
       <c r="S13">
-        <v>0.006035546856547055</v>
+        <v>0.002521978886706717</v>
       </c>
       <c r="T13">
-        <v>0.006035546856547055</v>
+        <v>0.002521978886706717</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H14">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I14">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J14">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7389603333333333</v>
+        <v>1.683564</v>
       </c>
       <c r="N14">
-        <v>2.216881</v>
+        <v>5.050692</v>
       </c>
       <c r="O14">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="P14">
-        <v>0.02350164865971288</v>
+        <v>0.05502605769642779</v>
       </c>
       <c r="Q14">
-        <v>0.1638225794977778</v>
+        <v>0.137316530532</v>
       </c>
       <c r="R14">
-        <v>1.47440321548</v>
+        <v>1.235848774788</v>
       </c>
       <c r="S14">
-        <v>0.00206834220090068</v>
+        <v>0.001969045345435351</v>
       </c>
       <c r="T14">
-        <v>0.00206834220090068</v>
+        <v>0.001969045345435351</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H15">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I15">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J15">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.052748666666666</v>
+        <v>5.278649666666666</v>
       </c>
       <c r="N15">
-        <v>27.158246</v>
+        <v>15.835949</v>
       </c>
       <c r="O15">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="P15">
-        <v>0.2879106076086415</v>
+        <v>0.1725288026574751</v>
       </c>
       <c r="Q15">
-        <v>2.006934027742222</v>
+        <v>0.4305425027623333</v>
       </c>
       <c r="R15">
-        <v>18.06240624968</v>
+        <v>3.874882524860999</v>
       </c>
       <c r="S15">
-        <v>0.02533854830468667</v>
+        <v>0.006173748402991432</v>
       </c>
       <c r="T15">
-        <v>0.02533854830468666</v>
+        <v>0.006173748402991431</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2216933333333333</v>
+        <v>0.081563</v>
       </c>
       <c r="H16">
-        <v>0.66508</v>
+        <v>0.244689</v>
       </c>
       <c r="I16">
-        <v>0.08800838744757017</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="J16">
-        <v>0.08800838744757018</v>
+        <v>0.03578387091254728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6253503333333333</v>
+        <v>0.8089063333333334</v>
       </c>
       <c r="N16">
-        <v>1.876051</v>
+        <v>2.426719</v>
       </c>
       <c r="O16">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403914</v>
       </c>
       <c r="P16">
-        <v>0.0198884340069237</v>
+        <v>0.02643851173403913</v>
       </c>
       <c r="Q16">
-        <v>0.1386359998977778</v>
+        <v>0.06597682726566667</v>
       </c>
       <c r="R16">
-        <v>1.24772399908</v>
+        <v>0.593791445391</v>
       </c>
       <c r="S16">
-        <v>0.001750349005806772</v>
+        <v>0.0009460722910107228</v>
       </c>
       <c r="T16">
-        <v>0.001750349005806772</v>
+        <v>0.0009460722910107227</v>
       </c>
     </row>
   </sheetData>
